--- a/Code/Results/Cases/Case_5_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.33913074403007</v>
+        <v>12.88963960803376</v>
       </c>
       <c r="C2">
-        <v>7.606277582747298</v>
+        <v>9.976687499281791</v>
       </c>
       <c r="D2">
-        <v>5.243461718381198</v>
+        <v>6.048845672423057</v>
       </c>
       <c r="E2">
-        <v>7.899986836529554</v>
+        <v>12.85754554660071</v>
       </c>
       <c r="F2">
-        <v>20.78029036510272</v>
+        <v>29.05216494537635</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.87107521997978</v>
+        <v>9.279679946302068</v>
       </c>
       <c r="L2">
-        <v>6.180736946079346</v>
+        <v>9.936603969692923</v>
       </c>
       <c r="M2">
-        <v>9.832352277565077</v>
+        <v>14.34080071758736</v>
       </c>
       <c r="N2">
-        <v>13.35868262577684</v>
+        <v>20.61222577438479</v>
       </c>
       <c r="O2">
-        <v>17.15205732558066</v>
+        <v>26.07061801874626</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.52487986171984</v>
+        <v>12.68735875500143</v>
       </c>
       <c r="C3">
-        <v>7.575105835469271</v>
+        <v>9.968956650452924</v>
       </c>
       <c r="D3">
-        <v>5.116772288125151</v>
+        <v>6.005592915365968</v>
       </c>
       <c r="E3">
-        <v>7.904695724569166</v>
+        <v>12.88524249874746</v>
       </c>
       <c r="F3">
-        <v>20.47085236323834</v>
+        <v>29.08328807432047</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.23958713171471</v>
+        <v>9.125311463440438</v>
       </c>
       <c r="L3">
-        <v>6.100193401941125</v>
+        <v>9.943880510330255</v>
       </c>
       <c r="M3">
-        <v>9.516735847302389</v>
+        <v>14.31423113161551</v>
       </c>
       <c r="N3">
-        <v>13.55972700569842</v>
+        <v>20.67265565931602</v>
       </c>
       <c r="O3">
-        <v>17.11627476959326</v>
+        <v>26.13503928559376</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.00125454255998</v>
+        <v>12.56411785047934</v>
       </c>
       <c r="C4">
-        <v>7.556348786004236</v>
+        <v>9.964333342000662</v>
       </c>
       <c r="D4">
-        <v>5.036790337637533</v>
+        <v>5.978386136169984</v>
       </c>
       <c r="E4">
-        <v>7.911277299280041</v>
+        <v>12.90391149391155</v>
       </c>
       <c r="F4">
-        <v>20.29480104862216</v>
+        <v>29.10890588684171</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.831310560615204</v>
+        <v>9.030839042328958</v>
       </c>
       <c r="L4">
-        <v>6.052896149692253</v>
+        <v>9.949666414332773</v>
       </c>
       <c r="M4">
-        <v>9.321568966527234</v>
+        <v>14.30005469857688</v>
       </c>
       <c r="N4">
-        <v>13.68605234011379</v>
+        <v>20.7115067768385</v>
       </c>
       <c r="O4">
-        <v>17.10646219650795</v>
+        <v>26.17937452268546</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78205477071829</v>
+        <v>12.51420271716207</v>
       </c>
       <c r="C5">
-        <v>7.54880137285643</v>
+        <v>9.962480838347766</v>
       </c>
       <c r="D5">
-        <v>5.003669882696447</v>
+        <v>5.967139253591911</v>
       </c>
       <c r="E5">
-        <v>7.914867505699197</v>
+        <v>12.91193771650276</v>
       </c>
       <c r="F5">
-        <v>20.22656105520934</v>
+        <v>29.12098065955844</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.659808292800506</v>
+        <v>8.992468489631884</v>
       </c>
       <c r="L5">
-        <v>6.03417520289814</v>
+        <v>9.952356223714071</v>
       </c>
       <c r="M5">
-        <v>9.241808132042701</v>
+        <v>14.29481970384187</v>
       </c>
       <c r="N5">
-        <v>13.73827575449481</v>
+        <v>20.7277794580571</v>
       </c>
       <c r="O5">
-        <v>17.10542702165676</v>
+        <v>26.19864222747065</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74531004152347</v>
+        <v>12.50593476250153</v>
       </c>
       <c r="C6">
-        <v>7.547553945562722</v>
+        <v>9.96217515012254</v>
       </c>
       <c r="D6">
-        <v>4.998139168883442</v>
+        <v>5.965262159746355</v>
       </c>
       <c r="E6">
-        <v>7.915517926313481</v>
+        <v>12.91329574662445</v>
       </c>
       <c r="F6">
-        <v>20.21544104468191</v>
+        <v>29.12308438754102</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.631022275715948</v>
+        <v>8.986106261555147</v>
       </c>
       <c r="L6">
-        <v>6.031100297856934</v>
+        <v>9.952822932144297</v>
       </c>
       <c r="M6">
-        <v>9.228553680368778</v>
+        <v>14.29398329926264</v>
       </c>
       <c r="N6">
-        <v>13.74699296182357</v>
+        <v>20.73050816862602</v>
       </c>
       <c r="O6">
-        <v>17.10543133993447</v>
+        <v>26.20191409592289</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.99832169195642</v>
+        <v>12.56344335042493</v>
       </c>
       <c r="C7">
-        <v>7.556246609187228</v>
+        <v>9.964308230174884</v>
       </c>
       <c r="D7">
-        <v>5.036345764338524</v>
+        <v>5.978235099697965</v>
       </c>
       <c r="E7">
-        <v>7.911322067175367</v>
+        <v>12.90401804366368</v>
       </c>
       <c r="F7">
-        <v>20.29386657313906</v>
+        <v>29.10906211221689</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.829018315452732</v>
+        <v>9.030320980585108</v>
       </c>
       <c r="L7">
-        <v>6.052641419800592</v>
+        <v>9.949701345059104</v>
       </c>
       <c r="M7">
-        <v>9.320494049019564</v>
+        <v>14.29998189726068</v>
       </c>
       <c r="N7">
-        <v>13.68675360197485</v>
+        <v>20.71172445053245</v>
       </c>
       <c r="O7">
-        <v>17.10643636193445</v>
+        <v>26.17962951379202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.06336021141983</v>
+        <v>12.81973282656918</v>
       </c>
       <c r="C8">
-        <v>7.59545016768247</v>
+        <v>9.973996568404116</v>
       </c>
       <c r="D8">
-        <v>5.200248790934986</v>
+        <v>6.034068932749197</v>
       </c>
       <c r="E8">
-        <v>7.900832667836529</v>
+        <v>12.86675048919315</v>
       </c>
       <c r="F8">
-        <v>20.67070266515374</v>
+        <v>29.06154489997034</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.65762025668833</v>
+        <v>9.226418906104048</v>
       </c>
       <c r="L8">
-        <v>6.152524648700519</v>
+        <v>9.938839709981758</v>
       </c>
       <c r="M8">
-        <v>9.723881512597638</v>
+        <v>14.33119874132588</v>
       </c>
       <c r="N8">
-        <v>13.42741649174669</v>
+        <v>20.63270018503919</v>
       </c>
       <c r="O8">
-        <v>17.13714042019308</v>
+        <v>26.09183756027837</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.07077482875087</v>
+        <v>13.3270945496729</v>
       </c>
       <c r="C9">
-        <v>7.675370266554506</v>
+        <v>9.993954380967626</v>
       </c>
       <c r="D9">
-        <v>5.503265527290517</v>
+        <v>6.13826038634789</v>
       </c>
       <c r="E9">
-        <v>7.910424752974126</v>
+        <v>12.80685058397563</v>
       </c>
       <c r="F9">
-        <v>21.52002266803524</v>
+        <v>29.02003287431366</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.11849957031125</v>
+        <v>9.611278558716377</v>
       </c>
       <c r="L9">
-        <v>6.364993366603161</v>
+        <v>9.927971913374298</v>
       </c>
       <c r="M9">
-        <v>10.49927688709155</v>
+        <v>14.40916008754229</v>
       </c>
       <c r="N9">
-        <v>12.94079092442314</v>
+        <v>20.49153649116043</v>
       </c>
       <c r="O9">
-        <v>17.29788652460381</v>
+        <v>25.95766272524061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.44729155495472</v>
+        <v>13.69902152920686</v>
       </c>
       <c r="C10">
-        <v>7.735967156904946</v>
+        <v>10.00917540615229</v>
       </c>
       <c r="D10">
-        <v>5.713486319370294</v>
+        <v>6.211389967608478</v>
       </c>
       <c r="E10">
-        <v>7.937058722516607</v>
+        <v>12.770859838182</v>
       </c>
       <c r="F10">
-        <v>22.21033567022831</v>
+        <v>29.02103937773698</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.09123609448977</v>
+        <v>9.891413959447711</v>
       </c>
       <c r="L10">
-        <v>6.530482717113106</v>
+        <v>9.926308670798541</v>
       </c>
       <c r="M10">
-        <v>11.05378194408615</v>
+        <v>14.47633927577527</v>
       </c>
       <c r="N10">
-        <v>12.59525036196572</v>
+        <v>20.3961547583261</v>
       </c>
       <c r="O10">
-        <v>17.48263885495751</v>
+        <v>25.88231120195238</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.04066251451228</v>
+        <v>13.86727499664429</v>
       </c>
       <c r="C11">
-        <v>7.763951467127543</v>
+        <v>10.01621531379838</v>
       </c>
       <c r="D11">
-        <v>5.806211846704208</v>
+        <v>6.243876626082115</v>
       </c>
       <c r="E11">
-        <v>7.953682166412008</v>
+        <v>12.75622353856199</v>
       </c>
       <c r="F11">
-        <v>22.53844577587688</v>
+        <v>29.02832593483106</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.5119747278744</v>
+        <v>10.01771776489023</v>
       </c>
       <c r="L11">
-        <v>6.607644905718714</v>
+        <v>9.926915129298969</v>
       </c>
       <c r="M11">
-        <v>11.3017523217352</v>
+        <v>14.50897808471916</v>
       </c>
       <c r="N11">
-        <v>12.44033362399432</v>
+        <v>20.35455442222802</v>
       </c>
       <c r="O11">
-        <v>17.58224334348363</v>
+        <v>25.8530876715104</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.26069318454901</v>
+        <v>13.93079220390234</v>
       </c>
       <c r="C12">
-        <v>7.774609451975905</v>
+        <v>10.01889727425218</v>
       </c>
       <c r="D12">
-        <v>5.840891095386888</v>
+        <v>6.256062959058245</v>
       </c>
       <c r="E12">
-        <v>7.960645695720816</v>
+        <v>12.75093043620087</v>
       </c>
       <c r="F12">
-        <v>22.66468352703587</v>
+        <v>29.03206479633488</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.66818010799045</v>
+        <v>10.06533809156021</v>
       </c>
       <c r="L12">
-        <v>6.637120894637488</v>
+        <v>9.927339842482898</v>
       </c>
       <c r="M12">
-        <v>11.39496781232589</v>
+        <v>14.52162974193776</v>
       </c>
       <c r="N12">
-        <v>12.38196940219308</v>
+        <v>20.33905744786908</v>
       </c>
       <c r="O12">
-        <v>17.62228216183813</v>
+        <v>25.84274903646133</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.2135123109649</v>
+        <v>13.9171223448789</v>
       </c>
       <c r="C13">
-        <v>7.772311339373688</v>
+        <v>10.0183189588355</v>
       </c>
       <c r="D13">
-        <v>5.833441835541697</v>
+        <v>6.253443612382474</v>
       </c>
       <c r="E13">
-        <v>7.959115915839273</v>
+        <v>12.75205931570911</v>
       </c>
       <c r="F13">
-        <v>22.63740805751537</v>
+        <v>29.0312160429585</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.63467698509213</v>
+        <v>10.05509216381066</v>
       </c>
       <c r="L13">
-        <v>6.630761530943737</v>
+        <v>9.927239713441063</v>
       </c>
       <c r="M13">
-        <v>11.37492369533471</v>
+        <v>14.51889210489458</v>
       </c>
       <c r="N13">
-        <v>12.39452631675566</v>
+        <v>20.34238362318651</v>
       </c>
       <c r="O13">
-        <v>17.61355457922861</v>
+        <v>25.8449432703022</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.05885777742168</v>
+        <v>13.87250488374642</v>
       </c>
       <c r="C14">
-        <v>7.764827079497288</v>
+        <v>10.01643564079586</v>
       </c>
       <c r="D14">
-        <v>5.809073711798931</v>
+        <v>6.244881540530155</v>
       </c>
       <c r="E14">
-        <v>7.95424154418791</v>
+        <v>12.75578307634694</v>
       </c>
       <c r="F14">
-        <v>22.54879176477129</v>
+        <v>29.02861391667382</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.52488827191888</v>
+        <v>10.02163994347121</v>
       </c>
       <c r="L14">
-        <v>6.610064854452674</v>
+        <v>9.926946167106491</v>
       </c>
       <c r="M14">
-        <v>11.30943532391016</v>
+        <v>14.51001313151972</v>
       </c>
       <c r="N14">
-        <v>12.43552612576487</v>
+        <v>20.35327434921377</v>
       </c>
       <c r="O14">
-        <v>17.58549038462368</v>
+        <v>25.85222251746636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96352134289739</v>
+        <v>13.84514798691644</v>
       </c>
       <c r="C15">
-        <v>7.760250716427443</v>
+        <v>10.01528413442758</v>
       </c>
       <c r="D15">
-        <v>5.794090575791549</v>
+        <v>6.239621860829491</v>
       </c>
       <c r="E15">
-        <v>7.951343524486884</v>
+        <v>12.75809645035623</v>
       </c>
       <c r="F15">
-        <v>22.49476975441134</v>
+        <v>29.02714752961195</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.45723371007787</v>
+        <v>10.00112106539754</v>
       </c>
       <c r="L15">
-        <v>6.597420516411829</v>
+        <v>9.926791734697114</v>
       </c>
       <c r="M15">
-        <v>11.26923060669011</v>
+        <v>14.5046123282058</v>
       </c>
       <c r="N15">
-        <v>12.46067784662733</v>
+        <v>20.35997856098112</v>
       </c>
       <c r="O15">
-        <v>17.56860490076296</v>
+        <v>25.85677605567253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.40785752465067</v>
+        <v>13.68800155251703</v>
       </c>
       <c r="C16">
-        <v>7.734146796325739</v>
+        <v>10.00871761468968</v>
       </c>
       <c r="D16">
-        <v>5.707366611601315</v>
+        <v>6.20925088939222</v>
       </c>
       <c r="E16">
-        <v>7.936064792991908</v>
+        <v>12.77185126393933</v>
       </c>
       <c r="F16">
-        <v>22.18917328319253</v>
+        <v>29.0207004100809</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.06330264502779</v>
+        <v>9.883133008342101</v>
       </c>
       <c r="L16">
-        <v>6.525476613755657</v>
+        <v>9.926296386572252</v>
       </c>
       <c r="M16">
-        <v>11.03748418452756</v>
+        <v>14.47424750179602</v>
       </c>
       <c r="N16">
-        <v>12.60541794772994</v>
+        <v>20.3989093465903</v>
       </c>
       <c r="O16">
-        <v>17.47644976639556</v>
+        <v>25.88432281238586</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.05860826516925</v>
+        <v>13.59131230068096</v>
       </c>
       <c r="C17">
-        <v>7.718240530802134</v>
+        <v>10.00471853392126</v>
       </c>
       <c r="D17">
-        <v>5.653408187762036</v>
+        <v>6.190416943551515</v>
       </c>
       <c r="E17">
-        <v>7.927860846476288</v>
+        <v>12.78073384018859</v>
       </c>
       <c r="F17">
-        <v>22.0052819904556</v>
+        <v>29.01849285843403</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.81606993644849</v>
+        <v>9.810428399996168</v>
       </c>
       <c r="L17">
-        <v>6.481812842585881</v>
+        <v>9.926340972557476</v>
       </c>
       <c r="M17">
-        <v>10.89416657399931</v>
+        <v>14.45614728170175</v>
       </c>
       <c r="N17">
-        <v>12.69477416766743</v>
+        <v>20.42324959729099</v>
       </c>
       <c r="O17">
-        <v>17.42396113850243</v>
+        <v>25.90251705332255</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85463752931969</v>
+        <v>13.53561446832662</v>
       </c>
       <c r="C18">
-        <v>7.709130997657067</v>
+        <v>10.00242930009709</v>
       </c>
       <c r="D18">
-        <v>5.622100155905387</v>
+        <v>6.179510907631134</v>
       </c>
       <c r="E18">
-        <v>7.923565212240699</v>
+        <v>12.78600628945246</v>
       </c>
       <c r="F18">
-        <v>21.90084046232485</v>
+        <v>29.01786606940185</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.67181865710557</v>
+        <v>9.768506757408179</v>
       </c>
       <c r="L18">
-        <v>6.456876401426193</v>
+        <v>9.92649497793629</v>
       </c>
       <c r="M18">
-        <v>10.81133510989815</v>
+        <v>14.44593259868149</v>
       </c>
       <c r="N18">
-        <v>12.74638501604216</v>
+        <v>20.43741794912275</v>
       </c>
       <c r="O18">
-        <v>17.3952308610054</v>
+        <v>25.91345758705956</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.7850439528349</v>
+        <v>13.51674351047356</v>
       </c>
       <c r="C19">
-        <v>7.706053402204368</v>
+        <v>10.00165609904016</v>
       </c>
       <c r="D19">
-        <v>5.61145350028055</v>
+        <v>6.175805836776988</v>
       </c>
       <c r="E19">
-        <v>7.922182820344776</v>
+        <v>12.78781952756693</v>
       </c>
       <c r="F19">
-        <v>21.86570748014968</v>
+        <v>29.01776433418591</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.62262541620265</v>
+        <v>9.754296389315121</v>
       </c>
       <c r="L19">
-        <v>6.448464322627058</v>
+        <v>9.926569195225234</v>
       </c>
       <c r="M19">
-        <v>10.78322358700445</v>
+        <v>14.44250796396724</v>
       </c>
       <c r="N19">
-        <v>12.76389738245457</v>
+        <v>20.44224408135481</v>
       </c>
       <c r="O19">
-        <v>17.38575140982771</v>
+        <v>25.91724353396035</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.09610605980885</v>
+        <v>13.60161426178802</v>
       </c>
       <c r="C20">
-        <v>7.719929704723126</v>
+        <v>10.0051431154779</v>
       </c>
       <c r="D20">
-        <v>5.659180486976954</v>
+        <v>6.192429455323825</v>
       </c>
       <c r="E20">
-        <v>7.928690237226127</v>
+        <v>12.77977136287045</v>
       </c>
       <c r="F20">
-        <v>22.02472035582762</v>
+        <v>29.01866132932381</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.84260034523177</v>
+        <v>9.818179016577176</v>
       </c>
       <c r="L20">
-        <v>6.486442626315768</v>
+        <v>9.926322948081223</v>
       </c>
       <c r="M20">
-        <v>10.90946481175784</v>
+        <v>14.45805383564769</v>
       </c>
       <c r="N20">
-        <v>12.68523993308824</v>
+        <v>20.42064110684912</v>
       </c>
       <c r="O20">
-        <v>17.42939694540084</v>
+        <v>25.90053100649062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.10440977040437</v>
+        <v>13.88561593346184</v>
       </c>
       <c r="C21">
-        <v>7.767023727005194</v>
+        <v>10.01698838441053</v>
       </c>
       <c r="D21">
-        <v>5.816243116592529</v>
+        <v>6.24739959469168</v>
       </c>
       <c r="E21">
-        <v>7.955654957967553</v>
+        <v>12.75468255286377</v>
       </c>
       <c r="F21">
-        <v>22.57476680982843</v>
+        <v>29.02935166058612</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.55722042107496</v>
+        <v>10.03147167397618</v>
       </c>
       <c r="L21">
-        <v>6.616137122705852</v>
+        <v>9.927027102828729</v>
       </c>
       <c r="M21">
-        <v>11.32868996392389</v>
+        <v>14.51261323137911</v>
       </c>
       <c r="N21">
-        <v>12.42347558757417</v>
+        <v>20.35006853553756</v>
       </c>
       <c r="O21">
-        <v>17.59366988710159</v>
+        <v>25.85006467080265</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.73622296763432</v>
+        <v>14.07005385657088</v>
       </c>
       <c r="C22">
-        <v>7.798158106253695</v>
+        <v>10.02482353779281</v>
       </c>
       <c r="D22">
-        <v>5.916357244386647</v>
+        <v>6.282650053611906</v>
       </c>
       <c r="E22">
-        <v>7.977184394923742</v>
+        <v>12.73973879542526</v>
       </c>
       <c r="F22">
-        <v>22.94583401612963</v>
+        <v>29.04204665919812</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.00609357467456</v>
+        <v>10.16963768517807</v>
       </c>
       <c r="L22">
-        <v>6.702387986678046</v>
+        <v>9.928623776861665</v>
       </c>
       <c r="M22">
-        <v>11.59865632567735</v>
+        <v>14.54996982768584</v>
       </c>
       <c r="N22">
-        <v>12.25412872801852</v>
+        <v>20.30543792004244</v>
       </c>
       <c r="O22">
-        <v>17.71459519692577</v>
+        <v>25.82132378295467</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.40148076047382</v>
+        <v>13.97174303331903</v>
       </c>
       <c r="C23">
-        <v>7.781508235230328</v>
+        <v>10.02063338897955</v>
       </c>
       <c r="D23">
-        <v>5.863161338331804</v>
+        <v>6.263899169006766</v>
       </c>
       <c r="E23">
-        <v>7.965329583903164</v>
+        <v>12.74758169317043</v>
       </c>
       <c r="F23">
-        <v>22.74674078794724</v>
+        <v>29.03474976280948</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.76817939469077</v>
+        <v>10.09602320546052</v>
       </c>
       <c r="L23">
-        <v>6.656222637170056</v>
+        <v>9.927667947914163</v>
       </c>
       <c r="M23">
-        <v>11.4549589378244</v>
+        <v>14.52987881043391</v>
       </c>
       <c r="N23">
-        <v>12.34436333139378</v>
+        <v>20.32912191275486</v>
       </c>
       <c r="O23">
-        <v>17.64878737738034</v>
+        <v>25.83627496251951</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07916322415518</v>
+        <v>13.59695708272394</v>
       </c>
       <c r="C24">
-        <v>7.719165919635465</v>
+        <v>10.00495113131033</v>
       </c>
       <c r="D24">
-        <v>5.656571721998903</v>
+        <v>6.191519841906304</v>
       </c>
       <c r="E24">
-        <v>7.928313960131805</v>
+        <v>12.78020598259298</v>
       </c>
       <c r="F24">
-        <v>22.0159282811433</v>
+        <v>29.01858316255031</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.83061253247944</v>
+        <v>9.814675341807913</v>
       </c>
       <c r="L24">
-        <v>6.484348981588593</v>
+        <v>9.926330697013237</v>
       </c>
       <c r="M24">
-        <v>10.90254983186042</v>
+        <v>14.45719128598009</v>
       </c>
       <c r="N24">
-        <v>12.68954961479317</v>
+        <v>20.42181986073427</v>
       </c>
       <c r="O24">
-        <v>17.42693491906622</v>
+        <v>25.90142740183825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.53442354071439</v>
+        <v>13.18971984047815</v>
       </c>
       <c r="C25">
-        <v>7.653422000479079</v>
+        <v>9.988455321295724</v>
       </c>
       <c r="D25">
-        <v>5.423390828731393</v>
+        <v>6.110660836300553</v>
       </c>
       <c r="E25">
-        <v>7.904476358316979</v>
+        <v>12.82164571916721</v>
       </c>
       <c r="F25">
-        <v>21.27851485626877</v>
+        <v>29.02572806820192</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.74094728830187</v>
+        <v>9.507425693058021</v>
       </c>
       <c r="L25">
-        <v>6.305811364574169</v>
+        <v>9.929798799558712</v>
       </c>
       <c r="M25">
-        <v>10.29180686864174</v>
+        <v>14.38630708986894</v>
       </c>
       <c r="N25">
-        <v>13.07022704429829</v>
+        <v>20.52825598553969</v>
       </c>
       <c r="O25">
-        <v>17.24307190569072</v>
+        <v>25.98988623580577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_179/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_179/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.88963960803376</v>
+        <v>13.33913074403007</v>
       </c>
       <c r="C2">
-        <v>9.976687499281791</v>
+        <v>7.60627758274703</v>
       </c>
       <c r="D2">
-        <v>6.048845672423057</v>
+        <v>5.243461718381258</v>
       </c>
       <c r="E2">
-        <v>12.85754554660071</v>
+        <v>7.899986836529616</v>
       </c>
       <c r="F2">
-        <v>29.05216494537635</v>
+        <v>20.78029036510266</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.279679946302068</v>
+        <v>10.87107521997975</v>
       </c>
       <c r="L2">
-        <v>9.936603969692923</v>
+        <v>6.180736946079435</v>
       </c>
       <c r="M2">
-        <v>14.34080071758736</v>
+        <v>9.83235227756508</v>
       </c>
       <c r="N2">
-        <v>20.61222577438479</v>
+        <v>13.35868262577677</v>
       </c>
       <c r="O2">
-        <v>26.07061801874626</v>
+        <v>17.15205732558063</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.68735875500143</v>
+        <v>12.52487986171981</v>
       </c>
       <c r="C3">
-        <v>9.968956650452924</v>
+        <v>7.575105835469402</v>
       </c>
       <c r="D3">
-        <v>6.005592915365968</v>
+        <v>5.116772288125136</v>
       </c>
       <c r="E3">
-        <v>12.88524249874746</v>
+        <v>7.904695724569166</v>
       </c>
       <c r="F3">
-        <v>29.08328807432047</v>
+        <v>20.4708523632382</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.125311463440438</v>
+        <v>10.23958713171479</v>
       </c>
       <c r="L3">
-        <v>9.943880510330255</v>
+        <v>6.100193401941127</v>
       </c>
       <c r="M3">
-        <v>14.31423113161551</v>
+        <v>9.516735847302353</v>
       </c>
       <c r="N3">
-        <v>20.67265565931602</v>
+        <v>13.55972700569838</v>
       </c>
       <c r="O3">
-        <v>26.13503928559376</v>
+        <v>17.11627476959313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.56411785047934</v>
+        <v>12.00125454255998</v>
       </c>
       <c r="C4">
-        <v>9.964333342000662</v>
+        <v>7.556348786004101</v>
       </c>
       <c r="D4">
-        <v>5.978386136169984</v>
+        <v>5.036790337637466</v>
       </c>
       <c r="E4">
-        <v>12.90391149391155</v>
+        <v>7.911277299280036</v>
       </c>
       <c r="F4">
-        <v>29.10890588684171</v>
+        <v>20.29480104862228</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.030839042328958</v>
+        <v>9.831310560615183</v>
       </c>
       <c r="L4">
-        <v>9.949666414332773</v>
+        <v>6.052896149692248</v>
       </c>
       <c r="M4">
-        <v>14.30005469857688</v>
+        <v>9.321568966527218</v>
       </c>
       <c r="N4">
-        <v>20.7115067768385</v>
+        <v>13.68605234011389</v>
       </c>
       <c r="O4">
-        <v>26.17937452268546</v>
+        <v>17.10646219650805</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.51420271716207</v>
+        <v>11.78205477071827</v>
       </c>
       <c r="C5">
-        <v>9.962480838347766</v>
+        <v>7.548801372856305</v>
       </c>
       <c r="D5">
-        <v>5.967139253591911</v>
+        <v>5.003669882696447</v>
       </c>
       <c r="E5">
-        <v>12.91193771650276</v>
+        <v>7.914867505699139</v>
       </c>
       <c r="F5">
-        <v>29.12098065955844</v>
+        <v>20.22656105520934</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.992468489631884</v>
+        <v>9.659808292800506</v>
       </c>
       <c r="L5">
-        <v>9.952356223714071</v>
+        <v>6.034175202898146</v>
       </c>
       <c r="M5">
-        <v>14.29481970384187</v>
+        <v>9.241808132042681</v>
       </c>
       <c r="N5">
-        <v>20.7277794580571</v>
+        <v>13.73827575449481</v>
       </c>
       <c r="O5">
-        <v>26.19864222747065</v>
+        <v>17.10542702165676</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.50593476250153</v>
+        <v>11.7453100415234</v>
       </c>
       <c r="C6">
-        <v>9.96217515012254</v>
+        <v>7.547553945562608</v>
       </c>
       <c r="D6">
-        <v>5.965262159746355</v>
+        <v>4.998139168883271</v>
       </c>
       <c r="E6">
-        <v>12.91329574662445</v>
+        <v>7.91551792631341</v>
       </c>
       <c r="F6">
-        <v>29.12308438754102</v>
+        <v>20.21544104468182</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.986106261555147</v>
+        <v>9.631022275715965</v>
       </c>
       <c r="L6">
-        <v>9.952822932144297</v>
+        <v>6.031100297856915</v>
       </c>
       <c r="M6">
-        <v>14.29398329926264</v>
+        <v>9.228553680368726</v>
       </c>
       <c r="N6">
-        <v>20.73050816862602</v>
+        <v>13.74699296182354</v>
       </c>
       <c r="O6">
-        <v>26.20191409592289</v>
+        <v>17.10543133993436</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.56344335042493</v>
+        <v>11.99832169195639</v>
       </c>
       <c r="C7">
-        <v>9.964308230174884</v>
+        <v>7.556246609187102</v>
       </c>
       <c r="D7">
-        <v>5.978235099697965</v>
+        <v>5.036345764338631</v>
       </c>
       <c r="E7">
-        <v>12.90401804366368</v>
+        <v>7.911322067175377</v>
       </c>
       <c r="F7">
-        <v>29.10906211221689</v>
+        <v>20.293866573139</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.030320980585108</v>
+        <v>9.829018315452771</v>
       </c>
       <c r="L7">
-        <v>9.949701345059104</v>
+        <v>6.05264141980062</v>
       </c>
       <c r="M7">
-        <v>14.29998189726068</v>
+        <v>9.320494049019544</v>
       </c>
       <c r="N7">
-        <v>20.71172445053245</v>
+        <v>13.68675360197485</v>
       </c>
       <c r="O7">
-        <v>26.17962951379202</v>
+        <v>17.10643636193439</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.81973282656918</v>
+        <v>13.06336021141984</v>
       </c>
       <c r="C8">
-        <v>9.973996568404116</v>
+        <v>7.595450167682855</v>
       </c>
       <c r="D8">
-        <v>6.034068932749197</v>
+        <v>5.200248790934868</v>
       </c>
       <c r="E8">
-        <v>12.86675048919315</v>
+        <v>7.90083266783665</v>
       </c>
       <c r="F8">
-        <v>29.06154489997034</v>
+        <v>20.67070266515372</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.226418906104048</v>
+        <v>10.65762025668839</v>
       </c>
       <c r="L8">
-        <v>9.938839709981758</v>
+        <v>6.152524648700475</v>
       </c>
       <c r="M8">
-        <v>14.33119874132588</v>
+        <v>9.723881512597627</v>
       </c>
       <c r="N8">
-        <v>20.63270018503919</v>
+        <v>13.42741649174669</v>
       </c>
       <c r="O8">
-        <v>26.09183756027837</v>
+        <v>17.13714042019301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.3270945496729</v>
+        <v>15.07077482875083</v>
       </c>
       <c r="C9">
-        <v>9.993954380967626</v>
+        <v>7.675370266554891</v>
       </c>
       <c r="D9">
-        <v>6.13826038634789</v>
+        <v>5.503265527290796</v>
       </c>
       <c r="E9">
-        <v>12.80685058397563</v>
+        <v>7.910424752974067</v>
       </c>
       <c r="F9">
-        <v>29.02003287431366</v>
+        <v>21.52002266803528</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.611278558716377</v>
+        <v>12.11849957031124</v>
       </c>
       <c r="L9">
-        <v>9.927971913374298</v>
+        <v>6.364993366603111</v>
       </c>
       <c r="M9">
-        <v>14.40916008754229</v>
+        <v>10.49927688709156</v>
       </c>
       <c r="N9">
-        <v>20.49153649116043</v>
+        <v>12.9407909244232</v>
       </c>
       <c r="O9">
-        <v>25.95766272524061</v>
+        <v>17.29788652460391</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.69902152920686</v>
+        <v>16.44729155495471</v>
       </c>
       <c r="C10">
-        <v>10.00917540615229</v>
+        <v>7.735967156905331</v>
       </c>
       <c r="D10">
-        <v>6.211389967608478</v>
+        <v>5.713486319370128</v>
       </c>
       <c r="E10">
-        <v>12.770859838182</v>
+        <v>7.937058722516606</v>
       </c>
       <c r="F10">
-        <v>29.02103937773698</v>
+        <v>22.21033567022818</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.891413959447711</v>
+        <v>13.09123609448982</v>
       </c>
       <c r="L10">
-        <v>9.926308670798541</v>
+        <v>6.530482717113031</v>
       </c>
       <c r="M10">
-        <v>14.47633927577527</v>
+        <v>11.05378194408611</v>
       </c>
       <c r="N10">
-        <v>20.3961547583261</v>
+        <v>12.59525036196562</v>
       </c>
       <c r="O10">
-        <v>25.88231120195238</v>
+        <v>17.48263885495737</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.86727499664429</v>
+        <v>17.04066251451234</v>
       </c>
       <c r="C11">
-        <v>10.01621531379838</v>
+        <v>7.763951467127418</v>
       </c>
       <c r="D11">
-        <v>6.243876626082115</v>
+        <v>5.80621184670426</v>
       </c>
       <c r="E11">
-        <v>12.75622353856199</v>
+        <v>7.953682166412006</v>
       </c>
       <c r="F11">
-        <v>29.02832593483106</v>
+        <v>22.53844577587682</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.01771776489023</v>
+        <v>13.5119747278744</v>
       </c>
       <c r="L11">
-        <v>9.926915129298969</v>
+        <v>6.607644905718798</v>
       </c>
       <c r="M11">
-        <v>14.50897808471916</v>
+        <v>11.30175232173519</v>
       </c>
       <c r="N11">
-        <v>20.35455442222802</v>
+        <v>12.44033362399425</v>
       </c>
       <c r="O11">
-        <v>25.8530876715104</v>
+        <v>17.58224334348357</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.93079220390234</v>
+        <v>17.26069318454901</v>
       </c>
       <c r="C12">
-        <v>10.01889727425218</v>
+        <v>7.774609451976006</v>
       </c>
       <c r="D12">
-        <v>6.256062959058245</v>
+        <v>5.840891095386946</v>
       </c>
       <c r="E12">
-        <v>12.75093043620087</v>
+        <v>7.960645695720875</v>
       </c>
       <c r="F12">
-        <v>29.03206479633488</v>
+        <v>22.66468352703582</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.06533809156021</v>
+        <v>13.66818010799044</v>
       </c>
       <c r="L12">
-        <v>9.927339842482898</v>
+        <v>6.63712089463752</v>
       </c>
       <c r="M12">
-        <v>14.52162974193776</v>
+        <v>11.39496781232591</v>
       </c>
       <c r="N12">
-        <v>20.33905744786908</v>
+        <v>12.38196940219304</v>
       </c>
       <c r="O12">
-        <v>25.84274903646133</v>
+        <v>17.62228216183811</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.9171223448789</v>
+        <v>17.2135123109649</v>
       </c>
       <c r="C13">
-        <v>10.0183189588355</v>
+        <v>7.772311339373558</v>
       </c>
       <c r="D13">
-        <v>6.253443612382474</v>
+        <v>5.833441835541914</v>
       </c>
       <c r="E13">
-        <v>12.75205931570911</v>
+        <v>7.959115915839283</v>
       </c>
       <c r="F13">
-        <v>29.0312160429585</v>
+        <v>22.63740805751529</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.05509216381066</v>
+        <v>13.63467698509211</v>
       </c>
       <c r="L13">
-        <v>9.927239713441063</v>
+        <v>6.63076153094376</v>
       </c>
       <c r="M13">
-        <v>14.51889210489458</v>
+        <v>11.37492369533473</v>
       </c>
       <c r="N13">
-        <v>20.34238362318651</v>
+        <v>12.39452631675563</v>
       </c>
       <c r="O13">
-        <v>25.8449432703022</v>
+        <v>17.61355457922861</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.87250488374642</v>
+        <v>17.0588577774217</v>
       </c>
       <c r="C14">
-        <v>10.01643564079586</v>
+        <v>7.764827079497275</v>
       </c>
       <c r="D14">
-        <v>6.244881540530155</v>
+        <v>5.809073711799072</v>
       </c>
       <c r="E14">
-        <v>12.75578307634694</v>
+        <v>7.95424154418791</v>
       </c>
       <c r="F14">
-        <v>29.02861391667382</v>
+        <v>22.54879176477121</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.02163994347121</v>
+        <v>13.52488827191891</v>
       </c>
       <c r="L14">
-        <v>9.926946167106491</v>
+        <v>6.610064854452712</v>
       </c>
       <c r="M14">
-        <v>14.51001313151972</v>
+        <v>11.30943532391013</v>
       </c>
       <c r="N14">
-        <v>20.35327434921377</v>
+        <v>12.43552612576501</v>
       </c>
       <c r="O14">
-        <v>25.85222251746636</v>
+        <v>17.58549038462368</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.84514798691644</v>
+        <v>16.9635213428974</v>
       </c>
       <c r="C15">
-        <v>10.01528413442758</v>
+        <v>7.760250716427318</v>
       </c>
       <c r="D15">
-        <v>6.239621860829491</v>
+        <v>5.794090575791663</v>
       </c>
       <c r="E15">
-        <v>12.75809645035623</v>
+        <v>7.951343524486994</v>
       </c>
       <c r="F15">
-        <v>29.02714752961195</v>
+        <v>22.49476975441121</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.00112106539754</v>
+        <v>13.4572337100779</v>
       </c>
       <c r="L15">
-        <v>9.926791734697114</v>
+        <v>6.597420516411924</v>
       </c>
       <c r="M15">
-        <v>14.5046123282058</v>
+        <v>11.26923060669012</v>
       </c>
       <c r="N15">
-        <v>20.35997856098112</v>
+        <v>12.46067784662727</v>
       </c>
       <c r="O15">
-        <v>25.85677605567253</v>
+        <v>17.56860490076285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.68800155251703</v>
+        <v>16.40785752465067</v>
       </c>
       <c r="C16">
-        <v>10.00871761468968</v>
+        <v>7.734146796325739</v>
       </c>
       <c r="D16">
-        <v>6.20925088939222</v>
+        <v>5.707366611601416</v>
       </c>
       <c r="E16">
-        <v>12.77185126393933</v>
+        <v>7.936064792991964</v>
       </c>
       <c r="F16">
-        <v>29.0207004100809</v>
+        <v>22.18917328319249</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.883133008342101</v>
+        <v>13.06330264502779</v>
       </c>
       <c r="L16">
-        <v>9.926296386572252</v>
+        <v>6.5254766137557</v>
       </c>
       <c r="M16">
-        <v>14.47424750179602</v>
+        <v>11.03748418452758</v>
       </c>
       <c r="N16">
-        <v>20.3989093465903</v>
+        <v>12.60541794772994</v>
       </c>
       <c r="O16">
-        <v>25.88432281238586</v>
+        <v>17.47644976639556</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.59131230068096</v>
+        <v>16.05860826516926</v>
       </c>
       <c r="C17">
-        <v>10.00471853392126</v>
+        <v>7.718240530801872</v>
       </c>
       <c r="D17">
-        <v>6.190416943551515</v>
+        <v>5.653408187762152</v>
       </c>
       <c r="E17">
-        <v>12.78073384018859</v>
+        <v>7.927860846476226</v>
       </c>
       <c r="F17">
-        <v>29.01849285843403</v>
+        <v>22.00528199045569</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.810428399996168</v>
+        <v>12.81606993644844</v>
       </c>
       <c r="L17">
-        <v>9.926340972557476</v>
+        <v>6.481812842585874</v>
       </c>
       <c r="M17">
-        <v>14.45614728170175</v>
+        <v>10.8941665739993</v>
       </c>
       <c r="N17">
-        <v>20.42324959729099</v>
+        <v>12.69477416766753</v>
       </c>
       <c r="O17">
-        <v>25.90251705332255</v>
+        <v>17.42396113850259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.53561446832662</v>
+        <v>15.85463752931975</v>
       </c>
       <c r="C18">
-        <v>10.00242930009709</v>
+        <v>7.709130997656934</v>
       </c>
       <c r="D18">
-        <v>6.179510907631134</v>
+        <v>5.622100155905382</v>
       </c>
       <c r="E18">
-        <v>12.78600628945246</v>
+        <v>7.923565212240863</v>
       </c>
       <c r="F18">
-        <v>29.01786606940185</v>
+        <v>21.90084046232467</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.768506757408179</v>
+        <v>12.67181865710563</v>
       </c>
       <c r="L18">
-        <v>9.92649497793629</v>
+        <v>6.456876401426307</v>
       </c>
       <c r="M18">
-        <v>14.44593259868149</v>
+        <v>10.81133510989817</v>
       </c>
       <c r="N18">
-        <v>20.43741794912275</v>
+        <v>12.7463850160421</v>
       </c>
       <c r="O18">
-        <v>25.91345758705956</v>
+        <v>17.39523086100527</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.51674351047356</v>
+        <v>15.78504395283493</v>
       </c>
       <c r="C19">
-        <v>10.00165609904016</v>
+        <v>7.706053402204365</v>
       </c>
       <c r="D19">
-        <v>6.175805836776988</v>
+        <v>5.611453500280657</v>
       </c>
       <c r="E19">
-        <v>12.78781952756693</v>
+        <v>7.922182820344837</v>
       </c>
       <c r="F19">
-        <v>29.01776433418591</v>
+        <v>21.8657074801496</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.754296389315121</v>
+        <v>12.62262541620268</v>
       </c>
       <c r="L19">
-        <v>9.926569195225234</v>
+        <v>6.448464322627127</v>
       </c>
       <c r="M19">
-        <v>14.44250796396724</v>
+        <v>10.78322358700446</v>
       </c>
       <c r="N19">
-        <v>20.44224408135481</v>
+        <v>12.76389738245454</v>
       </c>
       <c r="O19">
-        <v>25.91724353396035</v>
+        <v>17.38575140982763</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.60161426178802</v>
+        <v>16.09610605980882</v>
       </c>
       <c r="C20">
-        <v>10.0051431154779</v>
+        <v>7.719929704723259</v>
       </c>
       <c r="D20">
-        <v>6.192429455323825</v>
+        <v>5.659180486977116</v>
       </c>
       <c r="E20">
-        <v>12.77977136287045</v>
+        <v>7.928690237226084</v>
       </c>
       <c r="F20">
-        <v>29.01866132932381</v>
+        <v>22.02472035582755</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.818179016577176</v>
+        <v>12.8426003452318</v>
       </c>
       <c r="L20">
-        <v>9.926322948081223</v>
+        <v>6.486442626315705</v>
       </c>
       <c r="M20">
-        <v>14.45805383564769</v>
+        <v>10.90946481175783</v>
       </c>
       <c r="N20">
-        <v>20.42064110684912</v>
+        <v>12.68523993308817</v>
       </c>
       <c r="O20">
-        <v>25.90053100649062</v>
+        <v>17.42939694540079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.88561593346184</v>
+        <v>17.10440977040432</v>
       </c>
       <c r="C21">
-        <v>10.01698838441053</v>
+        <v>7.767023727005193</v>
       </c>
       <c r="D21">
-        <v>6.24739959469168</v>
+        <v>5.816243116592518</v>
       </c>
       <c r="E21">
-        <v>12.75468255286377</v>
+        <v>7.955654957967753</v>
       </c>
       <c r="F21">
-        <v>29.02935166058612</v>
+        <v>22.5747668098285</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.03147167397618</v>
+        <v>13.55722042107493</v>
       </c>
       <c r="L21">
-        <v>9.927027102828729</v>
+        <v>6.61613712270591</v>
       </c>
       <c r="M21">
-        <v>14.51261323137911</v>
+        <v>11.32868996392395</v>
       </c>
       <c r="N21">
-        <v>20.35006853553756</v>
+        <v>12.42347558757423</v>
       </c>
       <c r="O21">
-        <v>25.85006467080265</v>
+        <v>17.59366988710168</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.07005385657088</v>
+        <v>17.73622296763434</v>
       </c>
       <c r="C22">
-        <v>10.02482353779281</v>
+        <v>7.798158106253707</v>
       </c>
       <c r="D22">
-        <v>6.282650053611906</v>
+        <v>5.916357244386711</v>
       </c>
       <c r="E22">
-        <v>12.73973879542526</v>
+        <v>7.977184394923742</v>
       </c>
       <c r="F22">
-        <v>29.04204665919812</v>
+        <v>22.94583401612955</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.16963768517807</v>
+        <v>14.00609357467462</v>
       </c>
       <c r="L22">
-        <v>9.928623776861665</v>
+        <v>6.702387986678017</v>
       </c>
       <c r="M22">
-        <v>14.54996982768584</v>
+        <v>11.59865632567733</v>
       </c>
       <c r="N22">
-        <v>20.30543792004244</v>
+        <v>12.25412872801849</v>
       </c>
       <c r="O22">
-        <v>25.82132378295467</v>
+        <v>17.71459519692566</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.97174303331903</v>
+        <v>17.40148076047386</v>
       </c>
       <c r="C23">
-        <v>10.02063338897955</v>
+        <v>7.781508235230583</v>
       </c>
       <c r="D23">
-        <v>6.263899169006766</v>
+        <v>5.863161338331901</v>
       </c>
       <c r="E23">
-        <v>12.74758169317043</v>
+        <v>7.965329583903115</v>
       </c>
       <c r="F23">
-        <v>29.03474976280948</v>
+        <v>22.7467407879471</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.09602320546052</v>
+        <v>13.76817939469084</v>
       </c>
       <c r="L23">
-        <v>9.927667947914163</v>
+        <v>6.656222637169996</v>
       </c>
       <c r="M23">
-        <v>14.52987881043391</v>
+        <v>11.45495893782437</v>
       </c>
       <c r="N23">
-        <v>20.32912191275486</v>
+        <v>12.34436333139372</v>
       </c>
       <c r="O23">
-        <v>25.83627496251951</v>
+        <v>17.6487873773802</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.59695708272394</v>
+        <v>16.07916322415517</v>
       </c>
       <c r="C24">
-        <v>10.00495113131033</v>
+        <v>7.719165919635465</v>
       </c>
       <c r="D24">
-        <v>6.191519841906304</v>
+        <v>5.656571721999109</v>
       </c>
       <c r="E24">
-        <v>12.78020598259298</v>
+        <v>7.928313960131865</v>
       </c>
       <c r="F24">
-        <v>29.01858316255031</v>
+        <v>22.01592828114329</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.814675341807913</v>
+        <v>12.83061253247941</v>
       </c>
       <c r="L24">
-        <v>9.926330697013237</v>
+        <v>6.48434898158864</v>
       </c>
       <c r="M24">
-        <v>14.45719128598009</v>
+        <v>10.90254983186046</v>
       </c>
       <c r="N24">
-        <v>20.42181986073427</v>
+        <v>12.68954961479321</v>
       </c>
       <c r="O24">
-        <v>25.90142740183825</v>
+        <v>17.42693491906627</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.18971984047815</v>
+        <v>14.53442354071438</v>
       </c>
       <c r="C25">
-        <v>9.988455321295724</v>
+        <v>7.653422000479339</v>
       </c>
       <c r="D25">
-        <v>6.110660836300553</v>
+        <v>5.423390828731508</v>
       </c>
       <c r="E25">
-        <v>12.82164571916721</v>
+        <v>7.904476358317083</v>
       </c>
       <c r="F25">
-        <v>29.02572806820192</v>
+        <v>21.27851485626875</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.507425693058021</v>
+        <v>11.74094728830189</v>
       </c>
       <c r="L25">
-        <v>9.929798799558712</v>
+        <v>6.305811364574168</v>
       </c>
       <c r="M25">
-        <v>14.38630708986894</v>
+        <v>10.29180686864175</v>
       </c>
       <c r="N25">
-        <v>20.52825598553969</v>
+        <v>13.07022704429836</v>
       </c>
       <c r="O25">
-        <v>25.98988623580577</v>
+        <v>17.24307190569075</v>
       </c>
     </row>
   </sheetData>
